--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77181.63001759764</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77181.63001759764</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1034610147.133314</v>
+        <v>37592376.99362685</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10545.74278504227</v>
+        <v>825919.0575068302</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20699.96774994149</v>
+        <v>1583887.087636451</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30846.8324369561</v>
+        <v>2341855.11776607</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41207.6545703377</v>
+        <v>3099063.450352837</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51568.47670371929</v>
+        <v>3856271.782939604</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61929.29565075773</v>
+        <v>4613480.115526372</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>72290.06049238812</v>
+        <v>5370688.448113136</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>82650.87943942659</v>
+        <v>6127896.780699899</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>93011.70157280819</v>
+        <v>6885105.113286662</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103372.5205198466</v>
+        <v>7642313.445873426</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>113733.3426532283</v>
+        <v>8399521.778460188</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>124094.1616002667</v>
+        <v>9156730.111046955</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>134454.9837336483</v>
+        <v>9913938.443633728</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144815.8058670299</v>
+        <v>10671146.7762205</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>155176.6280004116</v>
+        <v>11428355.10880727</v>
       </c>
     </row>
   </sheetData>
